--- a/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-6,96</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,49</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,76; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,49%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,76; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,59</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,85</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,62</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 19,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 9,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,21</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 24,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 10,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,91</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 6,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 5,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,39</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,48</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 7,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 5,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,84</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,62</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 12,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,71</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 8,54</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 9,5</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 6,99</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,76</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 14,35</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,89</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 9,32</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 10,5</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 7,66</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,56</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,73</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 4,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 5,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,84</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,39</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 5,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 5,79</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,01</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 19,76</t>
+          <t>-5,66; 19,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 9,51</t>
+          <t>-3,3; 9,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 24,6</t>
+          <t>-5,66; 23,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 10,51</t>
+          <t>-3,3; 10,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 0,0</t>
+          <t>-33,59; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 0,0</t>
+          <t>-17,65; 0,0</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 0,0</t>
+          <t>-33,59; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 0,0</t>
+          <t>-17,65; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,07</t>
+          <t>0,0; 15,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,79</t>
+          <t>0,0; 19,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,31</t>
+          <t>0,0; 13,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,38</t>
+          <t>0,0; 13,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,66</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,59</t>
+          <t>0,0; 10,99</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,11</t>
+          <t>0,0; 18,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,76</t>
+          <t>0,0; 24,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,35</t>
+          <t>0,0; 15,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,45</t>
+          <t>0,0; 15,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,94</t>
+          <t>0,0; 12,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,85</t>
+          <t>0,0; 12,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,26</t>
+          <t>0,0; 20,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,41</t>
+          <t>0,0; 23,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,14</t>
+          <t>0,0; 14,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,62</t>
+          <t>0,0; 14,31</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,89</t>
+          <t>0,0; 26,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,16</t>
+          <t>0,0; 30,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,47</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,15</t>
+          <t>0,0; 16,71</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 19,12</t>
+          <t>-5,61; 19,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,46</t>
+          <t>0,0; 27,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 9,59</t>
+          <t>-3,32; 9,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,21</t>
+          <t>0,0; 14,82</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 23,53</t>
+          <t>-5,61; 25,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,72</t>
+          <t>0,0; 37,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 10,59</t>
+          <t>-3,33; 10,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,91</t>
+          <t>0,0; 17,4</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,0; 11,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,3</t>
+          <t>0,0; 12,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,65</t>
+          <t>-4,04; 6,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,13</t>
+          <t>0,0; 11,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,15</t>
+          <t>-2,08; 5,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>0,0; 6,52</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,39</t>
+          <t>0,0; 13,43</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,48</t>
+          <t>0,0; 14,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 7,18</t>
+          <t>-4,05; 7,48</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,04</t>
+          <t>0,0; 12,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,53</t>
+          <t>-2,07; 5,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,84</t>
+          <t>0,0; 6,97</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,62</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 12,56</t>
+          <t>-1,83; 11,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,71</t>
+          <t>0,0; 14,55</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 8,54</t>
+          <t>-3,68; 10,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,5</t>
+          <t>0,96; 9,68</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 6,99</t>
+          <t>-1,88; 7,23</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,76</t>
+          <t>0,0; 14,39</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 14,35</t>
+          <t>-1,88; 13,49</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,89</t>
+          <t>0,0; 17,05</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 9,32</t>
+          <t>-3,68; 12,09</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,5</t>
+          <t>0,97; 10,71</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 7,66</t>
+          <t>-1,94; 7,87</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,56</t>
+          <t>0,47; 5,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,73</t>
+          <t>-0,73; 3,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,9</t>
+          <t>-0,01; 4,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,47</t>
+          <t>0,04; 4,96</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,84</t>
+          <t>0,67; 3,73</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,39</t>
+          <t>0,09; 3,59</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,78</t>
+          <t>0,47; 5,29</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,88</t>
+          <t>-0,73; 4,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,19</t>
+          <t>-0,01; 5,25</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,79</t>
+          <t>0,05; 5,21</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,01</t>
+          <t>0,68; 3,89</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,52</t>
+          <t>0,09; 3,73</t>
         </is>
       </c>
     </row>
